--- a/data/WMCVotes.xlsx
+++ b/data/WMCVotes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys_721tx/Desktop/Wikipedia-Voting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys_721tx/Desktop/Wikipedia-Voting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7008C7C9-5712-7A43-A24F-7E7BFEF7D204}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07AFE98-B1F7-4F47-8E4B-B0050DAA1E4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017Panzer_VI-II" sheetId="5" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
     <t>CopperSulfate</t>
   </si>
   <si>
-    <t>Vanished user 1929210</t>
+    <t>Vanished_user_1929210</t>
   </si>
 </sst>
 </file>
@@ -3856,7 +3856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4331,7 +4331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/data/WMCVotes.xlsx
+++ b/data/WMCVotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys_721tx/Desktop/Wikipedia-Voting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07AFE98-B1F7-4F47-8E4B-B0050DAA1E4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C79E10-81CA-BE4F-96CC-49D6AD02A6AA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017Panzer_VI-II" sheetId="5" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="387">
   <si>
     <t>Alexander_Misel</t>
   </si>
@@ -803,9 +803,6 @@
   </si>
   <si>
     <t>追迹未来</t>
-  </si>
-  <si>
-    <t>嘀嘀嘀#top</t>
   </si>
   <si>
     <t>FRDian</t>
@@ -1831,7 +1828,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2283,7 +2280,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2386,7 +2383,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2413,7 +2410,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2431,7 +2428,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2548,7 +2545,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2566,7 +2563,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2584,7 +2581,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2772,7 +2769,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2865,7 +2862,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2874,7 +2871,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3018,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3034,7 +3031,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3079,7 +3076,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3178,7 +3175,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3335,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3449,7 +3446,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3472,7 +3469,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3856,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3901,7 +3898,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3917,7 +3914,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3933,7 +3930,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4009,7 +4006,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4045,7 +4042,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4063,7 +4060,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4117,7 +4114,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4126,7 +4123,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4135,7 +4132,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4225,7 +4222,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4279,7 +4276,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B42" t="b">
         <f>_xlfn.IFNA(MATCH(A42,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4288,7 +4285,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B43" t="b">
         <f>_xlfn.IFNA(MATCH(A43,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4306,7 +4303,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B45" t="b">
         <f>_xlfn.IFNA(MATCH(A45,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4315,7 +4312,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4363,7 +4360,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4395,7 +4392,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4427,7 +4424,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4460,7 +4457,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4496,7 +4493,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4514,7 +4511,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4550,7 +4547,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4586,7 +4583,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4631,7 +4628,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4712,7 +4709,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4757,7 +4754,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B42" t="b">
         <f>_xlfn.IFNA(MATCH(A42,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4775,7 +4772,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B44" t="b">
         <f>_xlfn.IFNA(MATCH(A44,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4784,7 +4781,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B45" t="b">
         <f>_xlfn.IFNA(MATCH(A45,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4793,7 +4790,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4984,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5048,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E11" t="b">
         <f>_xlfn.IFNA(MATCH(D11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5182,7 +5179,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5324,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5393,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5409,7 +5406,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5488,7 +5485,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5497,7 +5494,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5506,7 +5503,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5533,7 +5530,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5569,7 +5566,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5605,7 +5602,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5721,7 +5718,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5762,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5854,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5877,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5909,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5979,7 +5976,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6069,7 +6066,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6078,7 +6075,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6096,7 +6093,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6168,7 +6165,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6231,7 +6228,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B44" t="b">
         <f>_xlfn.IFNA(MATCH(A44,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6249,7 +6246,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6452,7 +6449,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6557,7 +6554,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6713,7 +6710,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6856,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6879,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6941,14 +6938,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6996,7 +6993,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7012,7 +7009,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7110,7 +7107,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7119,7 +7116,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7128,7 +7125,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7155,7 +7152,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7164,7 +7161,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7182,7 +7179,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7200,7 +7197,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7227,7 +7224,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7245,7 +7242,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B32" t="b">
         <f>_xlfn.IFNA(MATCH(A32,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7272,7 +7269,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7363,14 +7360,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7497,7 +7494,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7524,7 +7521,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7560,7 +7557,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7569,7 +7566,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7587,7 +7584,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7596,7 +7593,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7632,7 +7629,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7641,7 +7638,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B31" t="b">
         <f>_xlfn.IFNA(MATCH(A31,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7659,7 +7656,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7668,7 +7665,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" t="b">
         <f>_xlfn.IFNA(MATCH(A34,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7704,7 +7701,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B38" t="b">
         <f>_xlfn.IFNA(MATCH(A38,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7713,7 +7710,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" t="b">
         <f>_xlfn.IFNA(MATCH(A39,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7729,8 +7726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7860,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8185,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8201,14 +8198,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8231,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8297,7 +8294,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8306,7 +8303,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8324,7 +8321,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8342,7 +8339,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8360,7 +8357,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8378,7 +8375,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8405,7 +8402,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8441,7 +8438,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8477,7 +8474,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8486,7 +8483,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8512,7 +8509,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8547,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8558,7 +8555,7 @@
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -8570,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8581,7 +8578,7 @@
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
-        <v>0.21818181818181817</v>
+        <v>0.23636363636363636</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -8609,14 +8606,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8639,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8662,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8678,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8696,7 +8693,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8705,7 +8702,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8714,7 +8711,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8741,7 +8738,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8786,7 +8783,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8795,7 +8792,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8804,16 +8801,16 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8831,7 +8828,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8840,7 +8837,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8858,7 +8855,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8876,7 +8873,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8921,7 +8918,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8939,7 +8936,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8957,7 +8954,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" t="b">
         <f>_xlfn.IFNA(MATCH(A39,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8975,7 +8972,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B41" t="b">
         <f>_xlfn.IFNA(MATCH(A41,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9002,7 +8999,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" t="b">
         <f>_xlfn.IFNA(MATCH(A44,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9011,7 +9008,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B45" t="b">
         <f>_xlfn.IFNA(MATCH(A45,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9020,7 +9017,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9038,7 +9035,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B48" t="b">
         <f>_xlfn.IFNA(MATCH(A48,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9065,7 +9062,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B51" t="b">
         <f>_xlfn.IFNA(MATCH(A51,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9083,7 +9080,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B53" t="b">
         <f>_xlfn.IFNA(MATCH(A53,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9092,7 +9089,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B54" t="b">
         <f>_xlfn.IFNA(MATCH(A54,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9110,7 +9107,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B56" t="b">
         <f>_xlfn.IFNA(MATCH(A56,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9188,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9227,7 +9224,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9289,7 +9286,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9323,7 +9320,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9350,7 +9347,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9368,7 +9365,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9377,7 +9374,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9386,7 +9383,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9395,7 +9392,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9404,7 +9401,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9431,7 +9428,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9476,7 +9473,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9485,7 +9482,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9521,7 +9518,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9575,7 +9572,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" t="b">
         <f>_xlfn.IFNA(MATCH(A39,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9602,7 +9599,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B42" t="b">
         <f>_xlfn.IFNA(MATCH(A42,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9683,7 +9680,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B51" t="b">
         <f>_xlfn.IFNA(MATCH(A51,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9719,7 +9716,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B55" t="b">
         <f>_xlfn.IFNA(MATCH(A55,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9755,7 +9752,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B59" t="b">
         <f>_xlfn.IFNA(MATCH(A59,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9764,7 +9761,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B60" t="b">
         <f>_xlfn.IFNA(MATCH(A60,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9773,7 +9770,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B61" t="b">
         <f>_xlfn.IFNA(MATCH(A61,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9782,7 +9779,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B62" t="b">
         <f>_xlfn.IFNA(MATCH(A62,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9843,14 +9840,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9866,14 +9863,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9889,14 +9886,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9912,7 +9909,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9958,7 +9955,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9974,14 +9971,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9997,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10022,7 +10019,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10038,14 +10035,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E12" t="b">
         <f>_xlfn.IFNA(MATCH(D12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10061,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E13" t="b">
         <f>_xlfn.IFNA(MATCH(D13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10086,7 +10083,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10102,14 +10099,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E16" t="b">
         <f>_xlfn.IFNA(MATCH(D16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10118,7 +10115,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10134,14 +10131,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E18" t="b">
         <f>_xlfn.IFNA(MATCH(D18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10150,14 +10147,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E19" t="b">
         <f>_xlfn.IFNA(MATCH(D19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10198,14 +10195,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E22" t="b">
         <f>_xlfn.IFNA(MATCH(D22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10214,14 +10211,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E23" t="b">
         <f>_xlfn.IFNA(MATCH(D23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10230,14 +10227,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E24" t="b">
         <f>_xlfn.IFNA(MATCH(D24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10246,7 +10243,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10278,14 +10275,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E27" t="b">
         <f>_xlfn.IFNA(MATCH(D27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10294,7 +10291,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10310,7 +10307,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10326,14 +10323,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E30" t="b">
         <f>_xlfn.IFNA(MATCH(D30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10349,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E31" t="b">
         <f>_xlfn.IFNA(MATCH(D31,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10358,7 +10355,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E32" t="b">
         <f>_xlfn.IFNA(MATCH(D32,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10376,7 +10373,7 @@
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E34" t="b">
         <f>_xlfn.IFNA(MATCH(D34,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10385,7 +10382,7 @@
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E35" t="b">
         <f>_xlfn.IFNA(MATCH(D35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10410,8 +10407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10460,7 +10457,7 @@
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -10472,7 +10469,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10483,12 +10480,12 @@
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
-        <v>0.37777777777777777</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10534,7 +10531,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10573,7 +10570,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10582,7 +10579,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10654,7 +10651,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10663,7 +10660,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10681,7 +10678,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10690,7 +10687,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10717,7 +10714,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10762,7 +10759,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10780,7 +10777,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" t="b">
         <f>_xlfn.IFNA(MATCH(A31,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10789,11 +10786,11 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="B32" t="b">
         <f>_xlfn.IFNA(MATCH(A32,Members!$A:$A,0), 0) &gt; 0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -10825,7 +10822,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10834,7 +10831,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10861,7 +10858,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B40" t="b">
         <f>_xlfn.IFNA(MATCH(A40,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10931,8 +10928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:A137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11732,7 +11729,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -11778,7 +11775,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -11889,7 +11886,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12204,7 +12201,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12456,7 +12453,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12549,7 +12546,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12579,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12595,7 +12592,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12618,7 +12615,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12680,7 +12677,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12696,14 +12693,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12735,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E11" t="b">
         <f>_xlfn.IFNA(MATCH(D11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12871,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12917,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12926,14 +12923,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12949,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12958,7 +12955,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12976,7 +12973,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12985,7 +12982,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13021,7 +13018,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13030,7 +13027,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13039,7 +13036,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13057,7 +13054,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13075,7 +13072,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13084,7 +13081,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13138,7 +13135,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13183,7 +13180,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13210,7 +13207,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B38" t="b">
         <f>_xlfn.IFNA(MATCH(A38,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13282,7 +13279,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13588,7 +13585,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13678,7 +13675,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13786,7 +13783,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B47" t="b">
         <f>_xlfn.IFNA(MATCH(A47,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14050,7 +14047,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14185,7 +14182,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14266,7 +14263,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B45" t="b">
         <f>_xlfn.IFNA(MATCH(A45,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14498,7 +14495,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14525,7 +14522,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14552,7 +14549,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14597,7 +14594,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14633,7 +14630,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14714,7 +14711,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B34" t="b">
         <f>_xlfn.IFNA(MATCH(A34,Members!$A:$A,0), 0) &gt; 0</f>

--- a/data/WMCVotes.xlsx
+++ b/data/WMCVotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys_721tx/Desktop/Wikipedia-Voting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C79E10-81CA-BE4F-96CC-49D6AD02A6AA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DEE2BE-3B72-6849-A221-539876B92F49}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" firstSheet="18" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017Panzer_VI-II" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <sheet name="春卷柯南" sheetId="15" r:id="rId28"/>
     <sheet name="Members" sheetId="2" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="389">
   <si>
     <t>Alexander_Misel</t>
   </si>
@@ -1120,9 +1120,6 @@
     <t>S099001</t>
   </si>
   <si>
-    <t>南极熊</t>
-  </si>
-  <si>
     <t>Jarl_Sverre</t>
   </si>
   <si>
@@ -1210,13 +1207,22 @@
     <t>TSVC1190</t>
   </si>
   <si>
-    <t>樑桂</t>
-  </si>
-  <si>
     <t>CopperSulfate</t>
   </si>
   <si>
     <t>Vanished_user_1929210</t>
+  </si>
+  <si>
+    <t>Hamish</t>
+  </si>
+  <si>
+    <t>Ngguls</t>
+  </si>
+  <si>
+    <t>NanoKid</t>
+  </si>
+  <si>
+    <t>Kubelreiter</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1576,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1619,7 +1625,7 @@
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B2999,TRUE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1642,7 +1648,7 @@
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
-        <v>0.5714285714285714</v>
+        <v>0.55102040816326525</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1828,7 +1834,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2016,11 +2022,11 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>385</v>
       </c>
       <c r="B31" t="b">
         <f>_xlfn.IFNA(MATCH(A31,Members!$A:$A,0), 0) &gt; 0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2383,7 +2389,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2410,7 +2416,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2428,7 +2434,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2545,7 +2551,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2563,7 +2569,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2581,7 +2587,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2769,7 +2775,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3031,7 +3037,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3076,7 +3082,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3175,7 +3181,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3446,7 +3452,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3898,7 +3904,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3930,7 +3936,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4006,7 +4012,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4042,7 +4048,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4060,7 +4066,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4114,7 +4120,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4123,7 +4129,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4132,7 +4138,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4222,7 +4228,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4276,7 +4282,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B42" t="b">
         <f>_xlfn.IFNA(MATCH(A42,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4285,7 +4291,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B43" t="b">
         <f>_xlfn.IFNA(MATCH(A43,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4303,7 +4309,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B45" t="b">
         <f>_xlfn.IFNA(MATCH(A45,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4312,7 +4318,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4392,7 +4398,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4424,7 +4430,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4457,7 +4463,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4493,7 +4499,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4547,7 +4553,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4583,7 +4589,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4754,7 +4760,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B42" t="b">
         <f>_xlfn.IFNA(MATCH(A42,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4781,7 +4787,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B45" t="b">
         <f>_xlfn.IFNA(MATCH(A45,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4790,7 +4796,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4981,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5179,7 +5185,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5278,6 +5284,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5406,7 +5413,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5485,7 +5492,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5494,7 +5501,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5503,7 +5510,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6093,7 +6100,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6498,7 +6505,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6554,7 +6561,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6710,7 +6717,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6993,7 +7000,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7285,8 +7292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7360,14 +7367,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7521,7 +7528,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7638,7 +7645,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B31" t="b">
         <f>_xlfn.IFNA(MATCH(A31,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7656,7 +7663,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7701,7 +7708,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B38" t="b">
         <f>_xlfn.IFNA(MATCH(A38,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7726,7 +7733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -7857,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8702,7 +8709,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9124,7 +9131,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9392,7 +9399,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9518,7 +9525,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9779,7 +9786,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B62" t="b">
         <f>_xlfn.IFNA(MATCH(A62,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10928,8 +10935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:A137"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11629,7 +11636,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11678,7 +11685,7 @@
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -11701,7 +11708,7 @@
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
-        <v>0.21739130434782608</v>
+        <v>0.17391304347826086</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -11775,7 +11782,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -11859,11 +11866,11 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>386</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -11958,6 +11965,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -12201,7 +12209,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12453,7 +12461,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12518,7 +12526,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12576,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12592,7 +12600,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12677,7 +12685,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12693,14 +12701,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12758,7 +12766,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12868,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12914,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12923,7 +12931,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12946,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12955,7 +12963,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12973,7 +12981,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12982,7 +12990,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13018,7 +13026,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13027,7 +13035,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13036,7 +13044,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13054,7 +13062,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13072,7 +13080,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13081,7 +13089,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13207,7 +13215,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B38" t="b">
         <f>_xlfn.IFNA(MATCH(A38,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13279,7 +13287,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13304,8 +13312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13585,7 +13593,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13675,7 +13683,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13783,7 +13791,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B47" t="b">
         <f>_xlfn.IFNA(MATCH(A47,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13809,7 +13817,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14047,7 +14055,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14182,7 +14190,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14263,7 +14271,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B45" t="b">
         <f>_xlfn.IFNA(MATCH(A45,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14361,7 +14369,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14522,7 +14530,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14594,7 +14602,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
